--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3799.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3799.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3799</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Josh Reginald Hazlewood</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>22/06/2010</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3129</t>
+          <t>3129</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>11/09/2013</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3557</t>
+          <t>3557</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -588,7 +651,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>14/11/2014</t>
@@ -596,7 +658,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3694</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3695</t>
+          <t>3695</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -688,7 +750,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>19/11/2014</t>
@@ -696,7 +757,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3697</t>
+          <t>3697</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -736,7 +797,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>23/11/2014</t>
@@ -744,7 +804,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3700</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -784,7 +844,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>26/01/2015</t>
@@ -792,7 +851,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3741</t>
+          <t>3741</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -832,7 +891,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>01/02/2015</t>
@@ -840,7 +898,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3746</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -880,7 +938,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>14/02/2015</t>
@@ -888,7 +945,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3749</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -928,7 +985,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>04/03/2015</t>
@@ -936,7 +992,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3773</t>
+          <t>3773</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -976,7 +1032,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>20/03/2015</t>
@@ -984,7 +1039,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3792</t>
+          <t>3792</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1024,7 +1079,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>26/03/2015</t>
@@ -1032,7 +1086,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3795</t>
+          <t>3795</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1072,7 +1126,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>29/03/2015</t>
@@ -1080,7 +1133,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3796</t>
+          <t>3796</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1120,7 +1173,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>12/01/2016</t>
@@ -1128,7 +1180,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3874</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1180,7 +1232,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3884</t>
+          <t>3884</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1220,7 +1272,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>06/02/2016</t>
@@ -1228,7 +1279,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3886</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1280,7 +1331,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3888</t>
+          <t>3888</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1320,7 +1371,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>05/06/2016</t>
@@ -1328,7 +1378,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3893</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1380,7 +1430,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3894</t>
+          <t>3894</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1420,7 +1470,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>11/06/2016</t>
@@ -1428,7 +1477,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3896</t>
+          <t>3896</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1468,7 +1517,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>13/06/2016</t>
@@ -1476,7 +1524,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3898</t>
+          <t>3898</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1516,7 +1564,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>19/06/2016</t>
@@ -1524,7 +1571,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3903</t>
+          <t>3903</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1564,7 +1611,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>21/06/2016</t>
@@ -1572,7 +1618,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3905</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1624,7 +1670,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3909</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1664,7 +1710,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>21/08/2016</t>
@@ -1672,7 +1717,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3923</t>
+          <t>3923</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1712,7 +1757,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>28/08/2016</t>
@@ -1720,7 +1764,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3927</t>
+          <t>3927</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1760,7 +1804,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>04/12/2016</t>
@@ -1768,7 +1811,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1808,7 +1851,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>06/12/2016</t>
@@ -1816,7 +1858,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1856,7 +1898,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>09/12/2016</t>
@@ -1864,7 +1905,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1916,7 +1957,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1956,7 +1997,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>19/01/2017</t>
@@ -1964,7 +2004,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3975</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2004,7 +2044,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>22/01/2017</t>
@@ -2012,7 +2051,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2052,7 +2091,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>26/01/2017</t>
@@ -2060,7 +2098,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2112,7 +2150,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2164,7 +2202,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2204,7 +2242,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>02/06/2017</t>
@@ -2212,7 +2249,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4032</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2252,7 +2289,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>05/06/2017</t>
@@ -2260,7 +2296,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2312,7 +2348,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2352,7 +2388,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>21/01/2018</t>
@@ -2360,7 +2395,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2400,7 +2435,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>26/01/2018</t>
@@ -2408,7 +2442,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2460,7 +2494,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2512,7 +2546,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4222</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2564,7 +2598,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4224</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2616,7 +2650,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4226</t>
+          <t>4226</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2668,7 +2702,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2720,7 +2754,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4415</t>
+          <t>4415</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2760,7 +2794,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>07/03/2020</t>
@@ -2768,7 +2801,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4421</t>
+          <t>4421</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2808,7 +2841,6 @@
           <t>48</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>13/03/2020</t>
@@ -2816,7 +2848,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2868,7 +2900,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2920,7 +2952,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2960,7 +2992,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>16/09/2020</t>
@@ -2968,7 +2999,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3008,7 +3039,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>27/11/2020</t>
@@ -3016,7 +3046,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3056,7 +3086,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>29/11/2020</t>
@@ -3064,7 +3093,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3116,7 +3145,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3168,7 +3197,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3208,7 +3237,6 @@
           <t>56</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>26/07/2021</t>
@@ -3216,7 +3244,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3256,7 +3284,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>14/06/2022</t>
@@ -3264,7 +3291,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4594</t>
+          <t>4594</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3316,7 +3343,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4597</t>
+          <t>4597</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3356,7 +3383,6 @@
           <t>59</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>19/06/2022</t>
@@ -3364,7 +3390,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3416,7 +3442,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4601</t>
+          <t>4601</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3456,7 +3482,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>24/06/2022</t>
@@ -3464,7 +3489,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4603</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3504,7 +3529,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>28/08/2022</t>
@@ -3512,7 +3536,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4644</t>
+          <t>4644</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3552,7 +3576,6 @@
           <t>63</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>31/08/2022</t>
@@ -3560,7 +3583,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4645</t>
+          <t>4645</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3612,7 +3635,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4646</t>
+          <t>4646</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3652,7 +3675,6 @@
           <t>65</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>06/09/2022</t>
@@ -3660,7 +3682,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3712,7 +3734,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3752,7 +3774,6 @@
           <t>67</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>11/09/2022</t>
@@ -3760,7 +3781,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3800,7 +3821,6 @@
           <t>68</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>19/11/2022</t>
@@ -3808,7 +3828,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3848,7 +3868,6 @@
           <t>69</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>22/11/2022</t>
@@ -3856,7 +3875,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4666</t>
+          <t>4666</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3895,7 +3914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3917,7 +3936,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3954,7 +3973,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3129</t>
+          <t>3129</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3991,7 +4010,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3557</t>
+          <t>3557</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4028,7 +4047,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3694</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4065,7 +4084,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3695</t>
+          <t>3695</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4102,7 +4121,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3697</t>
+          <t>3697</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4139,7 +4158,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3700</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4176,7 +4195,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3741</t>
+          <t>3741</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4213,7 +4232,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3746</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4250,7 +4269,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3749</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4287,7 +4306,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3773</t>
+          <t>3773</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4324,7 +4343,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3792</t>
+          <t>3792</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4361,7 +4380,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3795</t>
+          <t>3795</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4398,7 +4417,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3796</t>
+          <t>3796</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4435,7 +4454,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3874</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4472,7 +4491,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3884</t>
+          <t>3884</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4509,7 +4528,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3886</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4546,7 +4565,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3888</t>
+          <t>3888</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4583,7 +4602,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3893</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4620,7 +4639,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3894</t>
+          <t>3894</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4657,7 +4676,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3896</t>
+          <t>3896</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4694,7 +4713,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3898</t>
+          <t>3898</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4731,7 +4750,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3905</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4768,7 +4787,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3909</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4805,7 +4824,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3923</t>
+          <t>3923</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4842,7 +4861,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3927</t>
+          <t>3927</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4879,7 +4898,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4916,7 +4935,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4953,7 +4972,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4990,7 +5009,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5027,7 +5046,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3975</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5064,7 +5083,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5101,7 +5120,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5138,7 +5157,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5175,7 +5194,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5212,7 +5231,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4032</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5249,7 +5268,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5286,7 +5305,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5323,7 +5342,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5360,7 +5379,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5397,7 +5416,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5434,7 +5453,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4222</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5471,7 +5490,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4224</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5508,7 +5527,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4226</t>
+          <t>4226</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5545,7 +5564,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5582,7 +5601,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4415</t>
+          <t>4415</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5619,7 +5638,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4421</t>
+          <t>4421</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5656,7 +5675,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5693,7 +5712,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5730,7 +5749,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5767,7 +5786,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5804,7 +5823,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5841,7 +5860,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5878,7 +5897,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -5915,7 +5934,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -5952,7 +5971,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -5989,7 +6008,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4594</t>
+          <t>4594</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6026,7 +6045,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4597</t>
+          <t>4597</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6063,7 +6082,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6100,7 +6119,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4601</t>
+          <t>4601</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6137,7 +6156,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4603</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6174,7 +6193,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4644</t>
+          <t>4644</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6211,7 +6230,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4645</t>
+          <t>4645</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6248,7 +6267,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4646</t>
+          <t>4646</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6285,7 +6304,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6322,7 +6341,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6359,7 +6378,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6396,7 +6415,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6433,7 +6452,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4666</t>
+          <t>4666</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -6461,6 +6480,385 @@
           <t>1/21</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.40%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>11.79%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3799.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3799.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6538,10 +6539,6 @@
           <t>4430</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6554,10 +6551,6 @@
           <t>4431</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6600,15 +6593,281 @@
           <t>4436</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>11.79%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6616,13 +6875,14 @@
           <t>4437</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -6632,13 +6892,14 @@
           <t>4483</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -6648,25 +6909,8 @@
           <t>4486</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>11</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6676,13 +6920,6 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6690,29 +6927,12 @@
           <t>4597</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>11</v>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>11.79%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6720,17 +6940,8 @@
           <t>4600</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>11</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6738,15 +6949,12 @@
           <t>4601</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6754,13 +6962,14 @@
           <t>4603</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -6770,11 +6979,12 @@
           <t>4644</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6784,9 +6994,6 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6794,11 +7001,16 @@
           <t>4646</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6808,9 +7020,6 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6818,11 +7027,12 @@
           <t>4648</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6830,11 +7040,16 @@
           <t>4649</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6844,9 +7059,6 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6856,9 +7068,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3799.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3799.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -617,7 +616,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -857,7 +856,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1577,7 +1576,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -6539,6 +6538,10 @@
           <t>4430</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6551,6 +6554,10 @@
           <t>4431</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6593,6 +6600,10 @@
           <t>4436</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6605,6 +6616,10 @@
           <t>4437</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6617,6 +6632,10 @@
           <t>4483</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6642,6 +6661,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6654,6 +6674,10 @@
           <t>4594</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6699,6 +6723,9 @@
       <c r="B11" t="n">
         <v>11</v>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6711,6 +6738,10 @@
           <t>4601</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6723,6 +6754,10 @@
           <t>4603</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6735,6 +6770,11 @@
           <t>4644</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6742,6 +6782,11 @@
           <t>4645</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6749,6 +6794,11 @@
           <t>4646</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6756,6 +6806,11 @@
           <t>4647</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6763,6 +6818,11 @@
           <t>4648</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6770,6 +6830,11 @@
           <t>4649</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6777,6 +6842,11 @@
           <t>4663</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6784,290 +6854,11 @@
           <t>4666</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4430</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4431</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4435</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4436</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4437</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4483</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4486</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4594</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4597</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4601</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4603</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4644</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4645</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4646</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4649</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4666</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3799.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3799.xlsx
@@ -6492,7 +6492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6535,10 +6535,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4430</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>3129</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -6551,7 +6553,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4431</t>
+          <t>3557</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -6567,27 +6569,13 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4435</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.40%</t>
-        </is>
-      </c>
+          <t>3694</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6597,12 +6585,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4436</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+          <t>3695</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
@@ -6613,10 +6611,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4437</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>3697</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -6629,7 +6629,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4483</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -6645,22 +6645,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4486</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>3741</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
@@ -6671,7 +6661,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4594</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -6687,27 +6677,15 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4597</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>11</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>11.79%</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6717,7 +6695,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4600</t>
+          <t>3773</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -6735,7 +6713,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4601</t>
+          <t>3792</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -6751,10 +6729,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4603</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>3795</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -6767,98 +6747,958 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4644</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>3796</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4645</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4646</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>3884</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+          <t>3886</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.62%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4648</t>
+          <t>3888</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4649</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>3893</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>3894</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4666</t>
+          <t>3896</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3898</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3903</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>11</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3905</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3909</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3923</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3927</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>11</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3966</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3967</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3968</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3973</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>11</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3975</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>11</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3977</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3981</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3984</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>11</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>4.33%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3988</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>11</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.35%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4032</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4035</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>11</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4041</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>11</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4117</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4123</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4125</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>11</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0.40%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4222</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4224</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4226</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>11</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4415</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>11</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>11.79%</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>11</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
